--- a/Team Names.xlsx
+++ b/Team Names.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\axole\Videos\xampp\htdocs\project\systemtron\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\project\systemtron\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{74614DB0-BAB9-491C-9038-C00E39170EE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57EDE628-40DF-4F0D-A0A6-C6D45AA48687}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="15375" windowHeight="8325" xr2:uid="{7B0E94A5-4BB9-4130-A7EE-42AB63C5BB39}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{7B0E94A5-4BB9-4130-A7EE-42AB63C5BB39}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Name</t>
   </si>
@@ -56,6 +56,15 @@
   </si>
   <si>
     <t>Github Profile</t>
+  </si>
+  <si>
+    <t>Junior</t>
+  </si>
+  <si>
+    <t>Maruping</t>
+  </si>
+  <si>
+    <t>junior-03</t>
   </si>
 </sst>
 </file>
@@ -420,10 +429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3791BFFC-49AC-4574-9157-A5547559C565}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -462,6 +471,20 @@
         <v>5</v>
       </c>
     </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>221023858</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/Team Names.xlsx
+++ b/Team Names.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\axole\Videos\xampp\htdocs\project\systemtron\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Documents\GitHub\systemtron\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{74614DB0-BAB9-491C-9038-C00E39170EE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28A8215E-CC8A-442A-A3C3-401F86821401}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="15375" windowHeight="8325" xr2:uid="{7B0E94A5-4BB9-4130-A7EE-42AB63C5BB39}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7B0E94A5-4BB9-4130-A7EE-42AB63C5BB39}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Name</t>
   </si>
@@ -56,6 +55,15 @@
   </si>
   <si>
     <t>Github Profile</t>
+  </si>
+  <si>
+    <t>Ndzulamo</t>
+  </si>
+  <si>
+    <t>Yingwani</t>
+  </si>
+  <si>
+    <t>MichelleNdzu</t>
   </si>
 </sst>
 </file>
@@ -420,21 +428,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3791BFFC-49AC-4574-9157-A5547559C565}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" customWidth="1"/>
+    <col min="1" max="1" width="17.33203125" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="18.7109375" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -448,7 +456,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -460,6 +468,20 @@
       </c>
       <c r="D2" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>220122253</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Team Names.xlsx
+++ b/Team Names.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\axole\Videos\xampp\htdocs\project\systemtron\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\xampp\htdocs\project\systemtron\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{74614DB0-BAB9-491C-9038-C00E39170EE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2FC324C-041D-40A5-B2E7-745732CA0F4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="15375" windowHeight="8325" xr2:uid="{7B0E94A5-4BB9-4130-A7EE-42AB63C5BB39}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{7B0E94A5-4BB9-4130-A7EE-42AB63C5BB39}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Name</t>
   </si>
@@ -56,6 +56,15 @@
   </si>
   <si>
     <t>Github Profile</t>
+  </si>
+  <si>
+    <t>Hlonipho Nersely</t>
+  </si>
+  <si>
+    <t>Bila</t>
+  </si>
+  <si>
+    <t>NesleyB</t>
   </si>
 </sst>
 </file>
@@ -420,10 +429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3791BFFC-49AC-4574-9157-A5547559C565}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -462,6 +471,20 @@
         <v>5</v>
       </c>
     </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>220080694</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/Team Names.xlsx
+++ b/Team Names.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\project\systemtron\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\axole\Videos\xampp\htdocs\project\systemtron\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57EDE628-40DF-4F0D-A0A6-C6D45AA48687}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D0AC450-8D63-49DE-9CC0-9A409200AEC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{7B0E94A5-4BB9-4130-A7EE-42AB63C5BB39}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="15375" windowHeight="8325" xr2:uid="{7B0E94A5-4BB9-4130-A7EE-42AB63C5BB39}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Name</t>
   </si>
@@ -65,15 +65,70 @@
   </si>
   <si>
     <t>junior-03</t>
+  </si>
+  <si>
+    <t>Ofentse</t>
+  </si>
+  <si>
+    <t>Makgopa</t>
+  </si>
+  <si>
+    <t>BMakgopa</t>
+  </si>
+  <si>
+    <t>Hlonipho Nersely</t>
+  </si>
+  <si>
+    <t>Bila</t>
+  </si>
+  <si>
+    <t>NesleyB</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ndzulamo </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Michelle</t>
+    </r>
+  </si>
+  <si>
+    <t>MichelleNdzu</t>
+  </si>
+  <si>
+    <t>Yingwani</t>
+  </si>
+  <si>
+    <t>Thato</t>
+  </si>
+  <si>
+    <t>Gadipedi</t>
+  </si>
+  <si>
+    <t>ThatohatsiG</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -429,10 +484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3791BFFC-49AC-4574-9157-A5547559C565}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -485,10 +540,67 @@
         <v>9</v>
       </c>
     </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4">
+        <v>221066447</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5">
+        <v>220080694</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6">
+        <v>220122253</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7">
+        <v>221028477</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>